--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376546.9572276622</v>
+        <v>373308.7577998815</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956399</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901774.857294663</v>
+        <v>5117112.456859927</v>
       </c>
     </row>
     <row r="11">
@@ -704,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707973</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D3" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
     </row>
     <row r="4">
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34.86547882798917</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="X6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="7">
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1227,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1373,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="H11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1613,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="16">
@@ -1771,25 +1773,25 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>38.87161743162455</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>38.87161743162454</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,70 +2083,70 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,31 +2159,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>30.67690516600952</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>153.8375610033827</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,61 +2332,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>12.94771755361648</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>14.1368900150014</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2737,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2752,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2801,11 +2803,11 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2834,28 +2836,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>51.59189336976466</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>153.8375610033827</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3038,61 +3040,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>132.1946129538656</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>109.6145161562757</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
@@ -3278,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>51.36290468266785</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,22 +3395,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>70.84795259427446</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>98.52739369932142</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -3603,7 +3605,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3333886635478406</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.41942988411211</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.42242740724806</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,64 +3900,64 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>39.58387696184059</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>83.13413836268582</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T2" t="n">
-        <v>83.13413836268582</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C3" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P3" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X3" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y3" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X6" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V8" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W8" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X8" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C9" t="n">
-        <v>38.38436553875449</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D9" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E9" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F9" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G9" t="n">
-        <v>38.38436553875449</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>81.54278654139161</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N9" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O9" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P9" t="n">
-        <v>120.7308247336138</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X9" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y9" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C11" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D11" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E11" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F11" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W11" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X11" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y11" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y12" t="n">
-        <v>118.3517937444931</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>115.1809137745201</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2438924791353</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>148.2438924791353</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>148.2438924791353</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>108.260178376266</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C15" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E15" t="n">
-        <v>118.3517937444931</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>38.38436553875449</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N15" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y15" t="n">
-        <v>118.3517937444931</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>87.37278572049297</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>158.0119685275972</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C21" t="n">
-        <v>158.0119685275972</v>
+        <v>359.1939133246643</v>
       </c>
       <c r="D21" t="n">
-        <v>158.0119685275972</v>
+        <v>210.2595036634131</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>51.02204865795755</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>51.02204865795755</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>51.02204865795755</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>51.02204865795755</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
         <v>712.019119383956</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>534.0788057531981</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>534.0788057531981</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>534.0788057531981</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>534.0788057531981</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X21" t="n">
-        <v>326.2273055476653</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y21" t="n">
-        <v>326.2273055476653</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6020,19 +6022,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>206.8126749707503</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="C24" t="n">
-        <v>32.35964568962331</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="D24" t="n">
-        <v>32.35964568962331</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>790.6398109613051</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>582.7883107557723</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.0280119908184</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="25">
@@ -6169,7 +6171,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S25" t="n">
         <v>829.5248650203655</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>124.6145917896818</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C27" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>124.6145917896818</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,43 +6314,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y27" t="n">
-        <v>292.8299288097498</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6402,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="C29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="D29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="E29" t="n">
+        <v>284.1276524520142</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>554.0190606638694</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>379.5660313827424</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>230.6316217214911</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>71.39416671603561</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6552,40 +6554,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="W30" t="n">
-        <v>761.8705608694022</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="X30" t="n">
-        <v>554.0190606638694</v>
+        <v>326.2273055476653</v>
       </c>
       <c r="Y30" t="n">
-        <v>554.0190606638694</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.6502787026334</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>152.8110551848245</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>152.8110551848245</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>752.1658925723343</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>752.1658925723343</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>752.1658925723343</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>752.1658925723343</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>508.7171159282343</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X33" t="n">
-        <v>300.8656157227014</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y33" t="n">
-        <v>300.8656157227014</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="34">
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
         <v>829.5248650203655</v>
@@ -6901,7 +6903,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>217.6974229850125</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>71.16286501189742</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7019,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>425.5489231905453</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="W36" t="n">
-        <v>425.5489231905453</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X36" t="n">
-        <v>217.6974229850125</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y36" t="n">
-        <v>217.6974229850125</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
         <v>829.5248650203655</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>521.2549444941228</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C39" t="n">
-        <v>521.2549444941228</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="D39" t="n">
-        <v>521.2549444941228</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="E39" t="n">
-        <v>362.0174894886673</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="F39" t="n">
-        <v>362.0174894886673</v>
+        <v>322.4725277437814</v>
       </c>
       <c r="G39" t="n">
-        <v>223.2866640712828</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>109.9175284788621</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>19.61789933601862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7296,7 +7298,7 @@
         <v>689.4702815141908</v>
       </c>
       <c r="Y39" t="n">
-        <v>689.4702815141908</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="40">
@@ -7363,13 +7365,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>784.3894110575544</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>784.3894110575544</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>784.3894110575544</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>784.3894110575544</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V41" t="n">
-        <v>784.3894110575544</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W41" t="n">
-        <v>545.5348722087957</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X41" t="n">
-        <v>306.680333360037</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="Y41" t="n">
-        <v>67.82579451127836</v>
+        <v>82.32787816303323</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N42" t="n">
-        <v>608.3392789286765</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>842.4406124543449</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>743.6773791998503</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>515.4537609362394</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>515.4537609362394</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>276.5992220874807</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>276.5992220874807</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.8389233225268</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>38.38436553875449</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>79.95943146291799</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>79.95943146291799</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>118.3517937444931</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>118.3517937444931</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>42.35474834916943</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>79.95943146291799</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>118.3517937444931</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>78.36807964162378</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>78.36807964162378</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>123.1178524655551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.1961881840039</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8550,7 +8552,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>177.9663024837473</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8774,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,16 +9017,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,16 +11150,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>238.4424492191174</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>273.750943367713</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>177.4253159361996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>184.145289972801</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>357.3570204389738</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C3" t="n">
-        <v>133.1246220264752</v>
+        <v>128.5763266090871</v>
       </c>
       <c r="D3" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>166.8110783456798</v>
       </c>
     </row>
     <row r="4">
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8683628354914</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>326.401274339383</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>309.6570917555724</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126.9493066880268</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>216.8295043329304</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X6" t="n">
-        <v>166.1891082416369</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y6" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="7">
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23069,25 +23071,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.3724598280644</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23115,13 +23117,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
-        <v>55.27774534968376</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="10">
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23261,25 +23263,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H11" t="n">
-        <v>316.5586126423905</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>126.9493066880268</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23352,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,10 +23393,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.6998078027087</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>123.1146487193992</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,22 +23457,22 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>263.6658983554629</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23501,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>357.0555904588174</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>110.9975005095251</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23577,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>77.36996540850728</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23637,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>166.9013677718529</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>161.5505233980758</v>
       </c>
     </row>
     <row r="16">
@@ -23659,25 +23661,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>92.56872966899051</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>110.9975005095251</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.52501541979053</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H19" t="n">
-        <v>161.4367220597573</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24017,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X20" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,31 +24047,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>58.71972768540556</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>46.32716769143889</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24260,19 +24262,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>144.6973629017845</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24409,10 +24411,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24443,19 +24445,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24491,10 +24493,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>98.09855422149506</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>168.1279498935992</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24625,7 +24627,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24689,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>93.47731902361923</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>46.32716769143889</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24886,10 +24888,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24926,7 +24928,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>25.45046750153531</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25011,7 +25013,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>62.06865494756211</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
@@ -25166,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>85.98061248054279</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25281,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>161.9526345551508</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25391,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>142.397655977241</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>38.81612346388921</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25491,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4132026627100162</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>334.3144117793685</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.1107562426193</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25843,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>319.8175627926938</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>309.6570917555724</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25956,10 +25958,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>102.4780383352215</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>138.6379206569481</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355279.4796042946</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355279.4796042948</v>
+        <v>358671.2447770133</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390693</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498541.5625390692</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495310.3319091872</v>
+        <v>498541.5625390694</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355279.4796042948</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65132.53968261262</v>
+        <v>65754.15294315934</v>
       </c>
       <c r="C2" t="n">
-        <v>65132.5396826126</v>
+        <v>65754.15294315931</v>
       </c>
       <c r="D2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="E2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315932</v>
       </c>
       <c r="F2" t="n">
-        <v>65132.53968261259</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="G2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="H2" t="n">
         <v>91388.3698922328</v>
@@ -26335,25 +26337,25 @@
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223285</v>
       </c>
       <c r="K2" t="n">
         <v>91388.3698922328</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="N2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>90796.17800832079</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="P2" t="n">
-        <v>65132.5396826126</v>
+        <v>91388.36989223282</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5965.63236844941</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="C4" t="n">
-        <v>5965.632368449412</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="D4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="E4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="F4" t="n">
-        <v>5965.632368449411</v>
+        <v>6026.749513840838</v>
       </c>
       <c r="G4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
         <v>8547.111069342402</v>
@@ -26451,13 +26453,13 @@
         <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8488.886639836433</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>5965.632368449411</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9867.139995800382</v>
+        <v>8626.861344417179</v>
       </c>
       <c r="C6" t="n">
-        <v>23132.60759488328</v>
+        <v>23416.56734866137</v>
       </c>
       <c r="D6" t="n">
-        <v>23132.60759488327</v>
+        <v>23416.56734866135</v>
       </c>
       <c r="E6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866138</v>
       </c>
       <c r="F6" t="n">
-        <v>56760.20759488328</v>
+        <v>57044.16734866135</v>
       </c>
       <c r="G6" t="n">
-        <v>55797.5477991866</v>
+        <v>14225.15515865643</v>
       </c>
       <c r="H6" t="n">
-        <v>15067.0230888037</v>
+        <v>68187.59005912874</v>
       </c>
       <c r="I6" t="n">
         <v>68187.59005912875</v>
       </c>
       <c r="J6" t="n">
-        <v>57830.70615532492</v>
+        <v>56640.67194913789</v>
       </c>
       <c r="K6" t="n">
         <v>68187.59005912874</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912874</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912874</v>
+        <v>68187.59005912875</v>
       </c>
       <c r="N6" t="n">
         <v>68187.59005912875</v>
       </c>
       <c r="O6" t="n">
-        <v>67930.15896609987</v>
+        <v>20807.71184166493</v>
       </c>
       <c r="P6" t="n">
-        <v>56760.20759488328</v>
+        <v>68187.59005912875</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>55.51629994036225</v>
-      </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>104.4680418047872</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>37.98452839772582</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.58387696184059</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>37.98452839772582</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373308.7577998815</v>
+        <v>266439.736465904</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956399</v>
+        <v>18548951.26311751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5117112.456859927</v>
+        <v>5631491.111385306</v>
       </c>
     </row>
     <row r="11">
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -913,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>81.0053776549329</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>38.87161743162455</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1095,16 +1095,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>38.87161743162455</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>38.87161743162454</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7.185390953068242</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1651,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>38.87161743162455</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>125.2132019625774</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1748,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>38.87161743162455</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>44.13217237922859</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1897,22 +1897,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>169.9804588624397</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2016,55 +2016,55 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.67690516600952</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2241,61 +2241,61 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2362,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2690,19 +2690,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>64.67263725582607</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2851,7 +2851,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>153.8375610033827</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,11 +3037,11 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>132.1946129538656</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>224.9136746670355</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3195,58 +3195,58 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V36" t="n">
-        <v>70.84795259427446</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,73 +3505,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,19 +3590,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>98.52739369932142</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>115.5785074418532</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>98.10479885422592</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,20 +3979,20 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>89.14698820604177</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T2" t="n">
-        <v>77.28117035226589</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U2" t="n">
-        <v>32.70321845405519</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V2" t="n">
-        <v>32.70321845405519</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W2" t="n">
-        <v>32.70321845405519</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X2" t="n">
-        <v>32.70321845405519</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.10852568854899</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>90.91227510121089</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>134.6031257566472</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>131.9507376187037</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="U3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X3" t="n">
-        <v>131.9507376187037</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y3" t="n">
-        <v>92.68647758675968</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42.79483382228227</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="W5" t="n">
-        <v>131.9507376187037</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X5" t="n">
-        <v>131.9507376187037</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.37278572049297</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W6" t="n">
-        <v>137.2644294849704</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X6" t="n">
-        <v>92.68647758675968</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y6" t="n">
-        <v>48.10852568854899</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>137.2644294849704</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>92.68647758675968</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>48.10852568854899</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V8" t="n">
-        <v>48.10852568854899</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>48.10852568854899</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>48.10852568854899</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>48.10852568854899</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.37278572049297</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>134.6031257566472</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>134.6031257566472</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>131.9507376187037</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>131.9507376187037</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>87.37278572049297</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131.9507376187037</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>131.9507376187037</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.37278572049297</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C12" t="n">
-        <v>87.37278572049297</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>185.7765687753331</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>26.53911376987762</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>26.53911376987762</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>26.53911376987762</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V12" t="n">
-        <v>87.37278572049297</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W12" t="n">
-        <v>87.37278572049297</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X12" t="n">
-        <v>87.37278572049297</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y12" t="n">
-        <v>87.37278572049297</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.68647758675968</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C15" t="n">
-        <v>92.68647758675968</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D15" t="n">
-        <v>48.10852568854899</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>3.530573790338288</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>45.45613755060546</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X15" t="n">
-        <v>137.2644294849704</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.68647758675968</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>193.7341723913397</v>
+      </c>
+      <c r="C18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="E18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="F18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="G18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="H18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="I18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="K18" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="L18" t="n">
+        <v>374.6018090363993</v>
+      </c>
+      <c r="M18" t="n">
+        <v>542.809531908403</v>
+      </c>
+      <c r="N18" t="n">
+        <v>542.809531908403</v>
+      </c>
+      <c r="O18" t="n">
+        <v>781.4136778972854</v>
+      </c>
+      <c r="P18" t="n">
         <v>964.0571555106362</v>
-      </c>
-      <c r="C18" t="n">
-        <v>817.1412885554689</v>
-      </c>
-      <c r="D18" t="n">
-        <v>668.2068788942177</v>
-      </c>
-      <c r="E18" t="n">
-        <v>508.9694238887622</v>
-      </c>
-      <c r="F18" t="n">
-        <v>362.4348659156472</v>
-      </c>
-      <c r="G18" t="n">
-        <v>223.7040404982626</v>
-      </c>
-      <c r="H18" t="n">
-        <v>110.334904905842</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20.03527576299844</v>
-      </c>
-      <c r="J18" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="K18" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="L18" t="n">
-        <v>234.810827406191</v>
-      </c>
-      <c r="M18" t="n">
-        <v>473.4149733950735</v>
-      </c>
-      <c r="N18" t="n">
-        <v>473.4149733950735</v>
-      </c>
-      <c r="O18" t="n">
-        <v>712.019119383956</v>
-      </c>
-      <c r="P18" t="n">
-        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
         <v>19.28114311021272</v>
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5788,16 +5788,16 @@
         <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>40.6788758079141</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>533.6469426057913</v>
+        <v>76.77296163243852</v>
       </c>
       <c r="C21" t="n">
-        <v>359.1939133246643</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>210.2595036634131</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W21" t="n">
-        <v>533.6469426057913</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X21" t="n">
-        <v>533.6469426057913</v>
+        <v>284.5332603973924</v>
       </c>
       <c r="Y21" t="n">
-        <v>533.6469426057913</v>
+        <v>76.77296163243852</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X24" t="n">
-        <v>55.04605772994853</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6247,28 +6247,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U26" t="n">
-        <v>527.5764290961142</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V26" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>527.5764290961142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
         <v>262.7299197543128</v>
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>193.7341723913397</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W27" t="n">
-        <v>193.7341723913397</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X27" t="n">
-        <v>193.7341723913397</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6402,10 +6402,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,43 +6551,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T30" t="n">
-        <v>534.0788057531981</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U30" t="n">
-        <v>534.0788057531981</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V30" t="n">
-        <v>534.0788057531981</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W30" t="n">
-        <v>534.0788057531981</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>326.2273055476653</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>326.2273055476653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6685,7 +6685,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6730,16 +6730,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
         <v>262.7299197543128</v>
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>152.8110551848245</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>152.8110551848245</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
         <v>19.28114311021272</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659515</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U35" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="U35" t="n">
+      <c r="W35" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y35" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="W35" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V36" t="n">
-        <v>187.4964801302808</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>187.4964801302808</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4964801302808</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>322.4725277437814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>322.4725277437814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,10 +7256,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
         <v>542.809531908403</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V39" t="n">
-        <v>689.4702815141908</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>689.4702815141908</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>689.4702815141908</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7362,16 +7362,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>569.2254314512334</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>569.2254314512334</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>325.7766548071333</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X41" t="n">
-        <v>82.32787816303323</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.32787816303323</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7812428759814</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7499,16 +7499,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>249.2442489785619</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7520,22 +7520,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7687,13 +7687,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7730,16 +7730,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7751,13 +7751,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U45" t="n">
         <v>913.4938269565423</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8072,13 +8072,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>175.9620140121676</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.3570204389738</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>124.5493355518741</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.8110783456798</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22707,7 +22707,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>129.2885653617898</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22746,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>326.401274339383</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22801,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>258.4694244608343</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22840,19 +22840,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22880,7 +22880,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>15.7107627173706</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22959,7 +22959,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22983,16 +22983,16 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>252.344814527994</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>170.1484521546208</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23102,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D9" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23117,7 +23117,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>161.5505233980758</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5508692414544</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,13 +23339,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.7734630237764</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,7 +23354,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>105.0500532834282</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23387,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>263.6658983554629</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.9975005095251</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>22.23186360206134</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23636,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>166.9013677718529</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>161.5505233980758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>102.3017902673406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>92.56872966899051</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23743,10 +23743,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>320.892250521429</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>35.79252634103781</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24028,10 +24028,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24050,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>115.7915986513122</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>58.71972768540556</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>336.5320379404362</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>109.6619469198454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>168.1279498935992</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>116.0172193266289</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>385.6922903709871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.02723208740593</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>46.32716769143889</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24885,13 +24885,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24925,10 +24925,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24970,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,13 +24998,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>25.45046750153531</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>26.78130849388413</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25207,22 +25207,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V36" t="n">
-        <v>161.9526345551508</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>130.9864331150558</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,19 +25478,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>38.81612346388921</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25517,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25675,16 +25675,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>57.12999154646258</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25845,10 +25845,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,10 +25867,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,7 +25879,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>50.10013888409016</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,7 +26000,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358671.2447770133</v>
+        <v>365335.3008426174</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358671.2447770133</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390692</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498541.5625390694</v>
+        <v>498541.5625390693</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65754.15294315934</v>
+        <v>66975.48325597876</v>
       </c>
       <c r="C2" t="n">
-        <v>65754.15294315931</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="D2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="E2" t="n">
-        <v>65754.15294315932</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="F2" t="n">
-        <v>65754.15294315929</v>
+        <v>91388.36989223283</v>
       </c>
       <c r="G2" t="n">
+        <v>91388.36989223283</v>
+      </c>
+      <c r="H2" t="n">
         <v>91388.36989223282</v>
-      </c>
-      <c r="H2" t="n">
-        <v>91388.3698922328</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
@@ -26340,10 +26340,10 @@
         <v>91388.36989223285</v>
       </c>
       <c r="K2" t="n">
+        <v>91388.36989223282</v>
+      </c>
+      <c r="L2" t="n">
         <v>91388.3698922328</v>
-      </c>
-      <c r="L2" t="n">
-        <v>91388.36989223282</v>
       </c>
       <c r="M2" t="n">
         <v>91388.36989223282</v>
@@ -26352,10 +26352,10 @@
         <v>91388.36989223282</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223279</v>
+        <v>91388.36989223282</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.3698922328</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6026.749513840838</v>
+        <v>6146.830964860552</v>
       </c>
       <c r="C4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6026.749513840838</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8626.861344417179</v>
+        <v>-8423.152682697133</v>
       </c>
       <c r="C6" t="n">
-        <v>23416.56734866137</v>
+        <v>-38234.34274757983</v>
       </c>
       <c r="D6" t="n">
-        <v>23416.56734866135</v>
+        <v>22341.9794390883</v>
       </c>
       <c r="E6" t="n">
-        <v>57044.16734866138</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="F6" t="n">
-        <v>57044.16734866135</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="G6" t="n">
-        <v>14225.15515865643</v>
+        <v>55969.5794390883</v>
       </c>
       <c r="H6" t="n">
-        <v>68187.59005912874</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="I6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="J6" t="n">
-        <v>56640.67194913789</v>
+        <v>41968.34729880903</v>
       </c>
       <c r="K6" t="n">
-        <v>68187.59005912874</v>
+        <v>7712.626505455677</v>
       </c>
       <c r="L6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908827</v>
       </c>
       <c r="M6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="N6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908828</v>
       </c>
       <c r="O6" t="n">
-        <v>20807.71184166493</v>
+        <v>55969.57943908829</v>
       </c>
       <c r="P6" t="n">
-        <v>68187.59005912875</v>
+        <v>55969.57943908827</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330019</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
